--- a/danos_TESTES.xlsx
+++ b/danos_TESTES.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="13890" windowHeight="8085" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -464,10 +464,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H761"/>
+  <dimension ref="A1:I764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -475,11 +475,11 @@
     <col width="40.5703125" customWidth="1" min="1" max="1"/>
     <col width="28.5703125" customWidth="1" min="2" max="2"/>
     <col width="21.7109375" customWidth="1" min="3" max="3"/>
-    <col width="31.5703125" customWidth="1" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" min="5" max="5"/>
-    <col width="12.42578125" customWidth="1" min="6" max="6"/>
-    <col width="16.85546875" customWidth="1" min="7" max="7"/>
-    <col width="24.28515625" customWidth="1" min="8" max="8"/>
+    <col width="31.5703125" customWidth="1" min="4" max="5"/>
+    <col width="14.7109375" customWidth="1" min="6" max="6"/>
+    <col width="12.42578125" customWidth="1" min="7" max="7"/>
+    <col width="16.85546875" customWidth="1" min="8" max="8"/>
+    <col width="24.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -500,25 +500,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>PRESENÇA DE SPODOPTERA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>DANO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>NOTA_DANO</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ALTURA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FOLHAS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>OBSERVAÇÃO</t>
         </is>
@@ -541,13 +546,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>232</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -568,13 +573,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>32</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -595,13 +600,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>364</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,13 +627,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>24</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -649,13 +654,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>23.3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -676,13 +681,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>383.4</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -703,13 +708,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>213</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -730,13 +735,13 @@
           <t>NÃO</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>37.9</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -757,13 +762,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>232</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -784,13 +789,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>98</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -811,13 +816,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>565</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -838,13 +843,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>343.5</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -865,13 +870,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>454.6</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -892,13 +897,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>23.9</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -919,13 +924,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>4</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>454</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -946,13 +951,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>5</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>34</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -973,13 +978,13 @@
           <t>SIM</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>78.2</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3181,7 +3186,7 @@
       <c r="C750" s="2" t="n"/>
     </row>
     <row r="751" ht="15" customHeight="1">
-      <c r="G751" s="3" t="n"/>
+      <c r="H751" s="3" t="n"/>
     </row>
     <row r="752" ht="15" customHeight="1">
       <c r="C752" s="3" t="n"/>
@@ -3206,11 +3211,11 @@
     </row>
     <row r="759" ht="13.5" customHeight="1">
       <c r="C759" s="3" t="n"/>
-      <c r="G759" s="3" t="n"/>
+      <c r="H759" s="3" t="n"/>
     </row>
     <row r="760" ht="13.5" customHeight="1">
       <c r="C760" s="3" t="n"/>
-      <c r="H760" s="3" t="n"/>
+      <c r="I760" s="3" t="n"/>
     </row>
     <row r="761" ht="13.5" customHeight="1">
       <c r="A761" t="inlineStr">
@@ -3231,19 +3236,118 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="E761" t="n">
+      <c r="F761" t="n">
         <v>2</v>
       </c>
-      <c r="F761" t="n">
+      <c r="G761" t="n">
         <v>120</v>
       </c>
-      <c r="G761" t="n">
+      <c r="H761" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="762" ht="13.5" customHeight="1"/>
-    <row r="763" ht="13.5" customHeight="1"/>
-    <row r="764" ht="13.5" customHeight="1"/>
+    <row r="762" ht="13.5" customHeight="1">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>04-05-2025 00:07:24</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>3</v>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F762" t="n">
+        <v>10</v>
+      </c>
+      <c r="G762" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H762" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" ht="13.5" customHeight="1">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>04-05-2025 00:11:25</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>3</v>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F763" t="n">
+        <v>3</v>
+      </c>
+      <c r="G763" t="n">
+        <v>4</v>
+      </c>
+      <c r="H763" t="n">
+        <v>12</v>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>Nenhuma</t>
+        </is>
+      </c>
+    </row>
+    <row r="764" ht="13.5" customHeight="1">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>04-05-2025 00:24:03</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>5</v>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F764" t="n">
+        <v>0</v>
+      </c>
+      <c r="G764" t="n">
+        <v>2</v>
+      </c>
+      <c r="H764" t="n">
+        <v>3</v>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>Nenhuma</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>

--- a/danos_TESTES.xlsx
+++ b/danos_TESTES.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I764"/>
+  <dimension ref="A1:I765"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -3348,6 +3348,45 @@
         </is>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>04-05-2025 12:18:57</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>4</v>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F765" t="n">
+        <v>3</v>
+      </c>
+      <c r="G765" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="H765" t="n">
+        <v>5</v>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>Nenhuma</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
